--- a/2019/indv_draft_results.xlsx
+++ b/2019/indv_draft_results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="154">
   <si>
     <t>Round</t>
   </si>
@@ -32,70 +32,361 @@
     <t>Position</t>
   </si>
   <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>ESPN Projection</t>
+  </si>
+  <si>
     <t>Pick Overall</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Saquon Barkley</t>
+  </si>
+  <si>
+    <t>Joe Mixon</t>
+  </si>
+  <si>
+    <t>Dalvin Cook</t>
+  </si>
+  <si>
+    <t>Mark Ingram II</t>
+  </si>
+  <si>
+    <t>Julian Edelman</t>
+  </si>
+  <si>
+    <t>Allen Robinson</t>
+  </si>
+  <si>
+    <t>Calvin Ridley</t>
+  </si>
+  <si>
+    <t>Jared Cook</t>
+  </si>
+  <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
+    <t>Austin Ekeler</t>
+  </si>
+  <si>
+    <t>James Washington</t>
+  </si>
+  <si>
+    <t>Peyton Barber</t>
+  </si>
+  <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
+    <t>Drew Brees</t>
+  </si>
+  <si>
+    <t>Mitchell Trubisky</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>Saquon Barkley</t>
-  </si>
-  <si>
-    <t>Adam Thielen</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Christian McCaffrey</t>
   </si>
   <si>
+    <t>Mike Evans</t>
+  </si>
+  <si>
+    <t>Antonio Brown</t>
+  </si>
+  <si>
+    <t>Aaron Jones</t>
+  </si>
+  <si>
+    <t>Stefon Diggs</t>
+  </si>
+  <si>
+    <t>DJ Moore</t>
+  </si>
+  <si>
+    <t>Robby Anderson</t>
+  </si>
+  <si>
+    <t>Hunter Henry</t>
+  </si>
+  <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
+    <t>Jordan Howard</t>
+  </si>
+  <si>
+    <t>Royce Freeman</t>
+  </si>
+  <si>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>Ronald Jones</t>
+  </si>
+  <si>
+    <t>Delanie Walker</t>
+  </si>
+  <si>
     <t>Harrison Butker</t>
   </si>
   <si>
+    <t>Lamar Jackson</t>
+  </si>
+  <si>
     <t>K</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>DeAndre Hopkins</t>
   </si>
   <si>
     <t>Ezekiel Elliott</t>
   </si>
   <si>
+    <t>Keenan Allen</t>
+  </si>
+  <si>
+    <t>Josh Jacobs</t>
+  </si>
+  <si>
+    <t>Robert Woods</t>
+  </si>
+  <si>
+    <t>Mike Williams</t>
+  </si>
+  <si>
+    <t>Josh Gordon</t>
+  </si>
+  <si>
+    <t>O.J. Howard</t>
+  </si>
+  <si>
+    <t>Aaron Rodgers</t>
+  </si>
+  <si>
+    <t>Tarik Cohen</t>
+  </si>
+  <si>
+    <t>Rashaad Penny</t>
+  </si>
+  <si>
+    <t>Dante Pettis</t>
+  </si>
+  <si>
+    <t>Nyheim Hines</t>
+  </si>
+  <si>
+    <t>Vance McDonald</t>
+  </si>
+  <si>
+    <t>Ben Roethlisberger</t>
+  </si>
+  <si>
+    <t>Tyrell Williams</t>
+  </si>
+  <si>
     <t>Davante Adams</t>
   </si>
   <si>
+    <t>Travis Kelce</t>
+  </si>
+  <si>
+    <t>Nick Chubb</t>
+  </si>
+  <si>
+    <t>Chris Carson</t>
+  </si>
+  <si>
+    <t>Kenny Golladay</t>
+  </si>
+  <si>
+    <t>Tyler Lockett</t>
+  </si>
+  <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
+    <t>Evan Engram</t>
+  </si>
+  <si>
+    <t>Sammy Watkins</t>
+  </si>
+  <si>
+    <t>Miles Sanders</t>
+  </si>
+  <si>
+    <t>Latavius Murray</t>
+  </si>
+  <si>
+    <t>Larry Fitzgerald</t>
+  </si>
+  <si>
+    <t>Darrell Henderson</t>
+  </si>
+  <si>
+    <t>David Njoku</t>
+  </si>
+  <si>
     <t>Alvin Kamara</t>
   </si>
   <si>
-    <t>9</t>
+    <t>Anthony Miller</t>
   </si>
   <si>
     <t>David Johnson</t>
   </si>
   <si>
+    <t>Todd Gurley II</t>
+  </si>
+  <si>
+    <t>Kerryon Johnson</t>
+  </si>
+  <si>
+    <t>Derrick Henry</t>
+  </si>
+  <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
+    <t>Cooper Kupp</t>
+  </si>
+  <si>
+    <t>Damien Williams</t>
+  </si>
+  <si>
+    <t>Tevin Coleman</t>
+  </si>
+  <si>
     <t>Kareem Hunt</t>
   </si>
   <si>
+    <t>Curtis Samuel</t>
+  </si>
+  <si>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
+    <t>Corey Davis</t>
+  </si>
+  <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
+    <t>Keke Coutee</t>
+  </si>
+  <si>
+    <t>Russell Wilson</t>
+  </si>
+  <si>
+    <t>Devin Funchess</t>
+  </si>
+  <si>
     <t>Le'Veon Bell</t>
   </si>
   <si>
     <t>Tyreek Hill</t>
   </si>
   <si>
-    <t>16</t>
+    <t>Leonard Fournette</t>
+  </si>
+  <si>
+    <t>Zach Ertz</t>
+  </si>
+  <si>
+    <t>T.Y. Hilton</t>
+  </si>
+  <si>
+    <t>Alshon Jeffery</t>
+  </si>
+  <si>
+    <t>James White</t>
+  </si>
+  <si>
+    <t>Duke Johnson Jr.</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
+    <t>Will Fuller V</t>
+  </si>
+  <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
+    <t>Michael Gallup</t>
+  </si>
+  <si>
+    <t>LeSean McCoy</t>
+  </si>
+  <si>
+    <t>Marquez Valdes-Scantling</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>DeSean Jackson</t>
   </si>
   <si>
     <t>Michael Thomas</t>
@@ -104,19 +395,94 @@
     <t>JuJu Smith-Schuster</t>
   </si>
   <si>
+    <t>Devonta Freeman</t>
+  </si>
+  <si>
+    <t>George Kittle</t>
+  </si>
+  <si>
+    <t>Patrick Mahomes</t>
+  </si>
+  <si>
+    <t>Marlon Mack</t>
+  </si>
+  <si>
+    <t>David Montgomery</t>
+  </si>
+  <si>
+    <t>Derrius Guice</t>
+  </si>
+  <si>
+    <t>Sterling Shepard</t>
+  </si>
+  <si>
+    <t>Dede Westbrook</t>
+  </si>
+  <si>
+    <t>Cam Newton</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
+    <t>Darwin Thompson</t>
+  </si>
+  <si>
+    <t>Geronimo Allison</t>
+  </si>
+  <si>
+    <t>Jared Goff</t>
+  </si>
+  <si>
     <t>James Conner</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Julio Jones</t>
   </si>
   <si>
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
+    <t>Amari Cooper</t>
+  </si>
+  <si>
+    <t>Brandin Cooks</t>
+  </si>
+  <si>
     <t>Melvin Gordon</t>
+  </si>
+  <si>
+    <t>Sony Michel</t>
+  </si>
+  <si>
+    <t>Phillip Lindsay</t>
+  </si>
+  <si>
+    <t>Kenyan Drake</t>
+  </si>
+  <si>
+    <t>Jarvis Landry</t>
+  </si>
+  <si>
+    <t>Marvin Jones Jr.</t>
+  </si>
+  <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Christian Kirk</t>
+  </si>
+  <si>
+    <t>Emmanuel Sanders</t>
+  </si>
+  <si>
+    <t>Stephen Gostkowski</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>Donte Moncrief</t>
   </si>
 </sst>
 </file>
@@ -474,15 +840,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -493,33 +859,311 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>276.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>215.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>206.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>178.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>163.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="F7">
+        <v>129.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>320.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>117.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
         <v>9</v>
+      </c>
+      <c r="F14">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>279.5</v>
       </c>
     </row>
   </sheetData>
@@ -529,15 +1173,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -548,33 +1192,331 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>246.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>176.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>138.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F8">
+        <v>133.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>88.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F15">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>137.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="F17">
+        <v>270.6</v>
       </c>
     </row>
   </sheetData>
@@ -584,15 +1526,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,33 +1545,331 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>193.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>166.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>144.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>130.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>299.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>83.09999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>100.1</v>
       </c>
     </row>
   </sheetData>
@@ -639,15 +1879,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -658,33 +1898,331 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>185.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>210.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>128.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>138.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="F14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>251.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>90.09999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -694,15 +2232,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -713,33 +2251,331 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>240.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>242.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>182.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>217.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>172.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F9">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>282.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>85.2</v>
       </c>
     </row>
   </sheetData>
@@ -749,15 +2585,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -768,33 +2604,331 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>218.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>135.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
         <v>9</v>
+      </c>
+      <c r="F10">
+        <v>137.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>295.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>284.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>104.7</v>
       </c>
     </row>
   </sheetData>
@@ -804,15 +2938,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -823,47 +2957,331 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>180.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>192.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>151.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>339.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>302.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>84.40000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="F16">
+        <v>278.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>213.6</v>
       </c>
     </row>
   </sheetData>
@@ -873,15 +3291,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -892,47 +3310,331 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>154.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>186.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E12">
         <v>8</v>
+      </c>
+      <c r="F12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>275.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>100.4</v>
       </c>
     </row>
   </sheetData>
